--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/设备库导入.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/设备库导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18558\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kingshuo\suiyu\finance_back444444\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E8DDD-D9EA-46D6-B6F7-101DE2FB88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1444771D-BA2F-455C-892D-A351FB61ED30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="6885" windowWidth="32400" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="43440" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,6 +68,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,11 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,20 +457,23 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="13" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,7 +490,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -514,6 +524,20 @@
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{C3AD70C5-7E95-498A-BC07-0AB178D34FED}">
+      <formula1>0</formula1>
+      <formula2>9.99999999999999E+36</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{FB5B05A1-7494-4FF7-8E13-982AAFACB4FA}">
+      <formula1>0</formula1>
+      <formula2>1.11111111111111E+31</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{F75769D9-6DF7-40C0-B2CB-CA11311CD692}">
+      <formula1>0</formula1>
+      <formula2>111111111111111000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
